--- a/artfynd/A 40056-2024 artfynd.xlsx
+++ b/artfynd/A 40056-2024 artfynd.xlsx
@@ -2213,7 +2213,7 @@
         <v>123408382</v>
       </c>
       <c r="B17" t="n">
-        <v>57984</v>
+        <v>57988</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>123408381</v>
       </c>
       <c r="B18" t="n">
-        <v>57984</v>
+        <v>57988</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
